--- a/codebook.xlsx
+++ b/codebook.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="16120" yWindow="8260" windowWidth="28800" windowHeight="17600" tabRatio="500"/>
+    <workbookView xWindow="19560" yWindow="7820" windowWidth="28800" windowHeight="17600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1025,8 +1025,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:G72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E49" sqref="E49"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1060,7 +1060,7 @@
       </c>
     </row>
     <row r="3" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D3" t="s">
@@ -1077,7 +1077,7 @@
       </c>
     </row>
     <row r="4" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D4" t="s">
@@ -1808,7 +1808,7 @@
       </c>
     </row>
     <row r="47" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C47" t="s">
+      <c r="C47" s="1" t="s">
         <v>220</v>
       </c>
       <c r="D47" t="s">
@@ -1842,7 +1842,7 @@
       </c>
     </row>
     <row r="49" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C49" t="s">
+      <c r="C49" s="1" t="s">
         <v>138</v>
       </c>
       <c r="D49" t="s">
@@ -1910,7 +1910,7 @@
       </c>
     </row>
     <row r="53" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C53" t="s">
+      <c r="C53" s="1" t="s">
         <v>146</v>
       </c>
       <c r="D53" t="s">
@@ -1944,7 +1944,7 @@
       </c>
     </row>
     <row r="55" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C55" t="s">
+      <c r="C55" s="1" t="s">
         <v>148</v>
       </c>
       <c r="D55" t="s">
@@ -2063,7 +2063,7 @@
       </c>
     </row>
     <row r="62" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C62" t="s">
+      <c r="C62" s="1" t="s">
         <v>205</v>
       </c>
       <c r="D62" t="s">
@@ -2199,7 +2199,7 @@
       </c>
     </row>
     <row r="70" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C70" t="s">
+      <c r="C70" s="1" t="s">
         <v>212</v>
       </c>
       <c r="D70" t="s">
@@ -2233,7 +2233,7 @@
       </c>
     </row>
     <row r="72" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C72" t="s">
+      <c r="C72" s="1" t="s">
         <v>214</v>
       </c>
       <c r="D72" t="s">
